--- a/data/trans_dic/P36$cafe-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36$cafe-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9340148289972466</v>
+        <v>0.9317448357795824</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9186690463497352</v>
+        <v>0.917556308858177</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8620111269192593</v>
+        <v>0.8610866626315579</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9241767439161677</v>
+        <v>0.9236367654990614</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9313049120329344</v>
+        <v>0.9321327502846876</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9331960235948904</v>
+        <v>0.9347092468300956</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9347548593308777</v>
+        <v>0.9350110459617281</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9301908082797414</v>
+        <v>0.9298458126871724</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9038906114790533</v>
+        <v>0.9045142865951541</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9653290048189564</v>
+        <v>0.9660965391586368</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9540865761608022</v>
+        <v>0.9544784834210501</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9098550260548778</v>
+        <v>0.9093667218495419</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9574200790943316</v>
+        <v>0.9588519158830671</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9648730493258272</v>
+        <v>0.9654198301364695</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9666942689050743</v>
+        <v>0.9659695376982379</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9589984056463262</v>
+        <v>0.9594352810621032</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9551553974256832</v>
+        <v>0.9556784530082568</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9339554851569505</v>
+        <v>0.9340669682125486</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9182967823590764</v>
+        <v>0.9175300245382698</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9072110077344153</v>
+        <v>0.9066427200746981</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8708220442381398</v>
+        <v>0.871421350543977</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9068749183010666</v>
+        <v>0.9074631372176714</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9254961732575355</v>
+        <v>0.925892536454844</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.896244859998637</v>
+        <v>0.8932738680453396</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9171513131351422</v>
+        <v>0.9180453409485949</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9232432635247788</v>
+        <v>0.9193208138681946</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.889404941045832</v>
+        <v>0.8894606393592404</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9498777074721179</v>
+        <v>0.9504274227917984</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9410357964268681</v>
+        <v>0.9420583968111985</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9128221638152002</v>
+        <v>0.9117606279450819</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9409399579853083</v>
+        <v>0.941789375750036</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9560328068066545</v>
+        <v>0.9550632692359053</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9316357443895529</v>
+        <v>0.9304056473514667</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9404148173325905</v>
+        <v>0.9412391280472597</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9453961956085348</v>
+        <v>0.9446449487266187</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9170842670943504</v>
+        <v>0.9156407336939982</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8682900453048219</v>
+        <v>0.86693922325604</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8545516338206685</v>
+        <v>0.8577443189049559</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.896052854186525</v>
+        <v>0.8982599448364533</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8868062078455629</v>
+        <v>0.8902162496540393</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8915761386505252</v>
+        <v>0.892930572212062</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9251869281611551</v>
+        <v>0.9226170442468712</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8844802811056282</v>
+        <v>0.8841698012245901</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.879245560610145</v>
+        <v>0.8797309910146912</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9161697833660163</v>
+        <v>0.9164855571070388</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9154705221811782</v>
+        <v>0.9165740988411305</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.904317886466498</v>
+        <v>0.9061685103687013</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9389778310894861</v>
+        <v>0.93878429882364</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9302695477354562</v>
+        <v>0.9297551020124222</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9340955482317438</v>
+        <v>0.9351850626827871</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9566506861142027</v>
+        <v>0.9566247355983868</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9181504732155982</v>
+        <v>0.916911285933663</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9127154549276177</v>
+        <v>0.9150688197435113</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9421976973599367</v>
+        <v>0.9422340085884862</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8618000416957374</v>
+        <v>0.8611788364088299</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.891845110142181</v>
+        <v>0.8902618426731372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9114742130741282</v>
+        <v>0.9108375581367057</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.872518014444797</v>
+        <v>0.870346121922947</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9193951772699144</v>
+        <v>0.9198978046650588</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9252517288968437</v>
+        <v>0.924424358800682</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8733289399032316</v>
+        <v>0.873122221062939</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9122831382695062</v>
+        <v>0.9121624265726177</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9252506002763711</v>
+        <v>0.924845123065921</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9035837185833531</v>
+        <v>0.9034886642427221</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9282703190246953</v>
+        <v>0.9304815931298276</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9440517986173848</v>
+        <v>0.9447487778740998</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.910473911683637</v>
+        <v>0.910864774768762</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9514929992711891</v>
+        <v>0.9496504246940887</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9557738338319224</v>
+        <v>0.9541898982845555</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9020461453873935</v>
+        <v>0.9010609455576087</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9365237843735367</v>
+        <v>0.9360238282890148</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9465966562815711</v>
+        <v>0.9468164364540136</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9039400913492965</v>
+        <v>0.9033925975262224</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9044222287737879</v>
+        <v>0.9045215588019232</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8976277382147596</v>
+        <v>0.8984589672292487</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9046145895018702</v>
+        <v>0.9059617807581557</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9271944255088562</v>
+        <v>0.9275545634939759</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9276290266736132</v>
+        <v>0.9279401441177335</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9084150822093423</v>
+        <v>0.9080046180415099</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9188687916277012</v>
+        <v>0.9191568721277816</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9160951757556688</v>
+        <v>0.9154607076337025</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9245835825988737</v>
+        <v>0.9238257157456615</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9252198365347576</v>
+        <v>0.9247059851844552</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9182133866987469</v>
+        <v>0.9182315443319365</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.924538944448177</v>
+        <v>0.9243807307982638</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9440249173374693</v>
+        <v>0.9440980710549827</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9436981978256981</v>
+        <v>0.9445295538277882</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9215827439978926</v>
+        <v>0.9225547367798649</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9319636649940612</v>
+        <v>0.9317445527314611</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9290448020441365</v>
+        <v>0.9289164912622976</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>647299</v>
+        <v>645726</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>644418</v>
+        <v>643637</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>580146</v>
+        <v>579524</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>636158</v>
+        <v>635786</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>648292</v>
+        <v>648868</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>626776</v>
+        <v>627793</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1291252</v>
+        <v>1291606</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1300016</v>
+        <v>1299534</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1215426</v>
+        <v>1216265</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>669001</v>
+        <v>669533</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>669262</v>
+        <v>669537</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>612346</v>
+        <v>612017</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>659041</v>
+        <v>660027</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>671659</v>
+        <v>672039</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>649275</v>
+        <v>648789</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1324741</v>
+        <v>1325345</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1334906</v>
+        <v>1335637</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1255854</v>
+        <v>1256003</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>880523</v>
+        <v>879787</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>923493</v>
+        <v>922914</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>889396</v>
+        <v>890008</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>877305</v>
+        <v>877874</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>953373</v>
+        <v>953781</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>933858</v>
+        <v>930762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1766671</v>
+        <v>1768393</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1890865</v>
+        <v>1882832</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1835105</v>
+        <v>1835220</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>910804</v>
+        <v>911332</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>957925</v>
+        <v>958966</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>932292</v>
+        <v>931208</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>910260</v>
+        <v>911081</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>984829</v>
+        <v>983831</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>970734</v>
+        <v>969452</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1811483</v>
+        <v>1813070</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1936236</v>
+        <v>1934697</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1892215</v>
+        <v>1889237</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>588239</v>
+        <v>587324</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>645695</v>
+        <v>648107</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>679628</v>
+        <v>681302</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>606434</v>
+        <v>608766</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>692020</v>
+        <v>693071</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>726282</v>
+        <v>724265</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1204052</v>
+        <v>1203629</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1346804</v>
+        <v>1347547</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1414090</v>
+        <v>1414577</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>620202</v>
+        <v>620950</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>683298</v>
+        <v>684696</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>712186</v>
+        <v>712039</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>636156</v>
+        <v>635805</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>725023</v>
+        <v>725868</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>750981</v>
+        <v>750961</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1249887</v>
+        <v>1248201</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1398072</v>
+        <v>1401677</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1454263</v>
+        <v>1454319</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>810482</v>
+        <v>809898</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>843565</v>
+        <v>842068</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>854568</v>
+        <v>853971</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>903569</v>
+        <v>901320</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>965160</v>
+        <v>965688</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>964729</v>
+        <v>963867</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1725734</v>
+        <v>1725325</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1820591</v>
+        <v>1820350</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1832213</v>
+        <v>1831410</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>849778</v>
+        <v>849689</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>878018</v>
+        <v>880110</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>885112</v>
+        <v>885765</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>942876</v>
+        <v>943281</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>998855</v>
+        <v>996921</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>996554</v>
+        <v>994902</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1782480</v>
+        <v>1780533</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1868966</v>
+        <v>1867968</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1874483</v>
+        <v>1874918</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2955718</v>
+        <v>2953928</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3093917</v>
+        <v>3094257</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3043299</v>
+        <v>3046117</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3053232</v>
+        <v>3057779</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3293566</v>
+        <v>3294845</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3285003</v>
+        <v>3286105</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6036409</v>
+        <v>6033682</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6407329</v>
+        <v>6409338</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6350069</v>
+        <v>6345672</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3023218</v>
+        <v>3020740</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3165063</v>
+        <v>3163305</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3113092</v>
+        <v>3113154</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3120480</v>
+        <v>3119946</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3353351</v>
+        <v>3353611</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3341909</v>
+        <v>3344853</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6123908</v>
+        <v>6130367</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>6498640</v>
+        <v>6497113</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6439832</v>
+        <v>6438943</v>
       </c>
     </row>
     <row r="24">
